--- a/test/template.xlsx
+++ b/test/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberso/Documents/GitHub/xlsTemplate2Jira/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA119F-53A8-4542-8470-7ED1ADEEC600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C9C9A-23EF-7443-9A72-487787A0436E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10440" yWindow="6300" windowWidth="27240" windowHeight="16440" xr2:uid="{1562F77A-688D-154B-A54B-11AB0BEF3A87}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>EPIC</t>
   </si>
@@ -41,99 +41,9 @@
     <t>Story</t>
   </si>
   <si>
-    <t>Initiate communication with PIM</t>
-  </si>
-  <si>
-    <r>
-      <t>Request</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> Infrastructure details review with IBM locals</t>
-    </r>
-  </si>
-  <si>
-    <t>Infrastructure requirements - IBM ordering</t>
-  </si>
-  <si>
     <t>subtask </t>
   </si>
   <si>
-    <r>
-      <t>Confirm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HW Ordering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monitor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> Hardware delivery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Plan a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kick off call (ATT- PM - Local contacts)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Confirm Installation - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Implementation completed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Final Gecep verifications - completion and closing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -146,9 +56,6 @@
     <t>{{E}} - {{F}} {{B}}, {{A}} ({{C}})</t>
   </si>
   <si>
-    <t>country-{{A}} gecep-{{D}}</t>
-  </si>
-  <si>
     <t>Do {{E}} {{F}} work for {{B}}, {{A}} ({{C}}) \n{{G}}</t>
   </si>
   <si>
@@ -158,14 +65,38 @@
     <t>Labels</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm local contact and site details for </t>
+    <t>country-{{A}} workitem-{{D}}</t>
+  </si>
+  <si>
+    <t>{{H}}</t>
+  </si>
+  <si>
+    <t>Confirm seating</t>
+  </si>
+  <si>
+    <t>Check menu</t>
+  </si>
+  <si>
+    <t>Check with suzie on vegan</t>
+  </si>
+  <si>
+    <t>split check</t>
+  </si>
+  <si>
+    <t>check tip</t>
+  </si>
+  <si>
+    <t>wait for those who don't have cash</t>
+  </si>
+  <si>
+    <t>Leave place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,20 +111,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -221,7 +140,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,29 +455,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C714FE-C6EF-A84B-BB9F-ACD37F2B95FC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,13 +485,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -580,10 +502,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,32 +516,41 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,10 +558,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,10 +572,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,32 +586,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test/template.xlsx
+++ b/test/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberso/Documents/GitHub/xlsTemplate2Jira/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C9C9A-23EF-7443-9A72-487787A0436E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1052F-B0B0-084D-B3CC-99564BC23DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="6300" windowWidth="27240" windowHeight="16440" xr2:uid="{1562F77A-688D-154B-A54B-11AB0BEF3A87}"/>
+    <workbookView xWindow="-30140" yWindow="-2300" windowWidth="27240" windowHeight="16440" xr2:uid="{1562F77A-688D-154B-A54B-11AB0BEF3A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,21 +44,12 @@
     <t>subtask </t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>{{E}} - {{F}} {{B}}, {{A}} ({{C}})</t>
-  </si>
-  <si>
-    <t>Do {{E}} {{F}} work for {{B}}, {{A}} ({{C}}) \n{{G}}</t>
-  </si>
-  <si>
     <t>Assignee</t>
   </si>
   <si>
@@ -90,6 +81,16 @@
   </si>
   <si>
     <t>Leave place</t>
+  </si>
+  <si>
+    <t>{{E}} - {{F}} {{B}}, {{A}} ({{D}})</t>
+  </si>
+  <si>
+    <t>Do {{E}} {{F}} work for {{B}}, {{A}} ({{C}})
+{{G}}</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
   </si>
 </sst>
 </file>
@@ -137,10 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,141 +466,148 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
